--- a/src/test/resources/testdata/iWantTFC.xlsx
+++ b/src/test/resources/testdata/iWantTFC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{301017F9-22AA-48C3-A750-E76D138B7AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2DFC9AE6-CCCF-42CA-80A6-327EC0A36EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{1A142681-4E89-4A4A-90E4-1A013E74276C}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Test1234</t>
   </si>
@@ -81,13 +81,25 @@
   </si>
   <si>
     <t>Live Channels</t>
+  </si>
+  <si>
+    <t>Recently Added</t>
+  </si>
+  <si>
+    <t>Forager</t>
+  </si>
+  <si>
+    <t>BINI Lagi-lagi</t>
+  </si>
+  <si>
+    <t>The BINI Roadtrip Adventures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,12 +131,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
@@ -151,13 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,19 +601,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CCBA02-611A-4C53-9DC0-D66EB1CD3C5E}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -616,7 +621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -624,7 +629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -632,11 +637,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
